--- a/Output/Classifier Inference/XGBoost/All_Features_PCA Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/XGBoost/All_Features_PCA Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0003938515981038412</v>
+        <v>0.0005299170811971028</v>
       </c>
       <c r="B2" t="n">
-        <v>2.645074533941177e-07</v>
+        <v>3.558878987220301e-07</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Inference/XGBoost/All_Features_PCA Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/XGBoost/All_Features_PCA Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0005299170811971028</v>
+        <v>0.0003460844357808431</v>
       </c>
       <c r="B2" t="n">
-        <v>3.558878987220301e-07</v>
+        <v>2.324274249703446e-07</v>
       </c>
     </row>
   </sheetData>
